--- a/Cálculo mas gente.xlsx
+++ b/Cálculo mas gente.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Calculo Grupo D" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Calculo Grupo A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Calculo Grupo B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Calculo Grupo C" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,4 +613,583 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ascensores</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zona expresa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos Servidos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos no servidos</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos totales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidad Nominal</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ref. Vel. Nominal</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido superior</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido expreso</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido superior servido</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de apertura y cierre</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de entrada y salida</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de Viaje Completo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo Total de viaje</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad Nominal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Personas por viaje</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Paradas Probables</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>C (&gt;12)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>I (&lt;40)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de llenado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Grupo A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.530605679143433</v>
+      </c>
+      <c r="I2" t="n">
+        <v>77</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>77</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>157.2799687596669</v>
+      </c>
+      <c r="O2" t="n">
+        <v>204.4639593875669</v>
+      </c>
+      <c r="P2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12.02380068563541</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15.30262039921388</v>
+      </c>
+      <c r="T2" t="n">
+        <v>40.89279187751339</v>
+      </c>
+      <c r="U2" t="n">
+        <v>32.67414252958178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ascensores</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zona expresa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos Servidos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos no servidos</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos totales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidad Nominal</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ref. Vel. Nominal</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido superior</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido expreso</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido superior servido</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de apertura y cierre</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de entrada y salida</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de Viaje Completo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo Total de viaje</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad Nominal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Personas por viaje</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Paradas Probables</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>C (&gt;12)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>I (&lt;40)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de llenado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Grupo B</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.530605679143433</v>
+      </c>
+      <c r="I2" t="n">
+        <v>154</v>
+      </c>
+      <c r="J2" t="n">
+        <v>77</v>
+      </c>
+      <c r="K2" t="n">
+        <v>77</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>179.09375740138</v>
+      </c>
+      <c r="O2" t="n">
+        <v>232.821884621794</v>
+      </c>
+      <c r="P2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12.02380068563541</v>
+      </c>
+      <c r="S2" t="n">
+        <v>16.12649615431557</v>
+      </c>
+      <c r="T2" t="n">
+        <v>38.80364743696567</v>
+      </c>
+      <c r="U2" t="n">
+        <v>31.00487515796766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ascensores</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zona expresa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos Servidos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos no servidos</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pisos totales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidad Nominal</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ref. Vel. Nominal</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido superior</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido expreso</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Recorrido superior servido</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de apertura y cierre</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de entrada y salida</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de Viaje Completo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo Total de viaje</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad Nominal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Personas por viaje</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Paradas Probables</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>C (&gt;12)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>I (&lt;40)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de llenado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Grupo C</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43</v>
+      </c>
+      <c r="F2" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.491774452311048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>224</v>
+      </c>
+      <c r="J2" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>189.2995287346837</v>
+      </c>
+      <c r="O2" t="n">
+        <v>246.0893873550888</v>
+      </c>
+      <c r="P2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11.837769560172</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15.94167454859081</v>
+      </c>
+      <c r="T2" t="n">
+        <v>41.0148978925148</v>
+      </c>
+      <c r="U2" t="n">
+        <v>31.36433368251132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Cálculo mas gente.xlsx
+++ b/Cálculo mas gente.xlsx
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.729817496050043</v>
+        <v>3.138201013049537</v>
       </c>
       <c r="I2" t="n">
         <v>297.5</v>
@@ -586,28 +586,28 @@
         <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>183.3593614329581</v>
+        <v>159.1748418505651</v>
       </c>
       <c r="O2" t="n">
-        <v>238.3671698628455</v>
+        <v>206.9272944057346</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>9.863251636448817</v>
+        <v>7.463212759426263</v>
       </c>
       <c r="S2" t="n">
-        <v>12.58562578783888</v>
+        <v>10.03697014880372</v>
       </c>
       <c r="T2" t="n">
-        <v>39.72786164380759</v>
+        <v>34.48788240095578</v>
       </c>
       <c r="U2" t="n">
-        <v>39.72786164380759</v>
+        <v>49.8158301347139</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.530605679143433</v>
+        <v>3.198650235743435</v>
       </c>
       <c r="I2" t="n">
         <v>77</v>
@@ -779,28 +779,28 @@
         <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>157.2799687596669</v>
+        <v>112.8018258563134</v>
       </c>
       <c r="O2" t="n">
-        <v>204.4639593875669</v>
+        <v>146.6423736132074</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>12.02380068563541</v>
+        <v>7.525878762368459</v>
       </c>
       <c r="S2" t="n">
-        <v>15.30262039921388</v>
+        <v>11.29579177544234</v>
       </c>
       <c r="T2" t="n">
-        <v>40.89279187751339</v>
+        <v>29.32847472264148</v>
       </c>
       <c r="U2" t="n">
-        <v>32.67414252958178</v>
+        <v>44.26427203509778</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.530605679143433</v>
+        <v>3.198650235743435</v>
       </c>
       <c r="I2" t="n">
         <v>154</v>
@@ -972,28 +972,28 @@
         <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>179.09375740138</v>
+        <v>133.2795253848265</v>
       </c>
       <c r="O2" t="n">
-        <v>232.821884621794</v>
+        <v>173.2633830002745</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>12.02380068563541</v>
+        <v>7.525878762368459</v>
       </c>
       <c r="S2" t="n">
-        <v>16.12649615431557</v>
+        <v>11.47230318910802</v>
       </c>
       <c r="T2" t="n">
-        <v>38.80364743696567</v>
+        <v>28.87723050004575</v>
       </c>
       <c r="U2" t="n">
-        <v>31.00487515796766</v>
+        <v>43.58322751395794</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.491774452311048</v>
+        <v>3.138201013049537</v>
       </c>
       <c r="I2" t="n">
         <v>224</v>
@@ -1165,28 +1165,28 @@
         <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>189.2995287346837</v>
+        <v>144.4748418505651</v>
       </c>
       <c r="O2" t="n">
-        <v>246.0893873550888</v>
+        <v>187.8172944057346</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>11.837769560172</v>
+        <v>7.463212759426263</v>
       </c>
       <c r="S2" t="n">
-        <v>15.94167454859081</v>
+        <v>11.05820996673703</v>
       </c>
       <c r="T2" t="n">
-        <v>41.0148978925148</v>
+        <v>31.30288240095577</v>
       </c>
       <c r="U2" t="n">
-        <v>31.36433368251132</v>
+        <v>45.21527457915833</v>
       </c>
     </row>
   </sheetData>
